--- a/earlywarning-pom/earlywarning-config/src/baf-instances/38_Inst_Analysis_Unit_ALEX.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/38_Inst_Analysis_Unit_ALEX.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HD 500 Gb/Documenti Michele/Lavoro/configurazione ALEX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="460" windowWidth="29380" windowHeight="13380" activeTab="1"/>
+    <workbookView xWindow="2625" yWindow="465" windowWidth="29385" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="134">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -131,12 +131,6 @@
   </si>
   <si>
     <t>EXPOSURE</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_BIR</t>
-  </si>
-  <si>
-    <t>Counterparty BIR</t>
   </si>
   <si>
     <t>ALEX_IND_1</t>
@@ -546,8 +540,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Variable" xfId="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1067,24 +1061,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1091,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1126,30 +1120,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
         <v>131</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>132</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>133</v>
-      </c>
-      <c r="G3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1163,19 +1157,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD57"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1179,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1205,871 +1199,871 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>123</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>123</v>
       </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>124</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>124</v>
       </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>126</v>
-      </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>76</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>76</v>
       </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>79</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>80</v>
       </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>81</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>81</v>
       </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
         <v>82</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>82</v>
       </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>83</v>
       </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>84</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>84</v>
       </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
         <v>85</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>85</v>
       </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>86</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>86</v>
       </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>88</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>88</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="E21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>89</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>89</v>
       </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>90</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="E23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>91</v>
       </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
         <v>92</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>92</v>
       </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="E25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>93</v>
       </c>
-      <c r="E24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
         <v>94</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>94</v>
       </c>
-      <c r="E25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
         <v>95</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>95</v>
       </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
         <v>96</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>96</v>
       </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
         <v>97</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>97</v>
       </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
         <v>98</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>98</v>
       </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
         <v>99</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>99</v>
       </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
         <v>100</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>100</v>
       </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
         <v>101</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>101</v>
       </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="5" t="s">
+      <c r="E34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
         <v>102</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>102</v>
       </c>
-      <c r="E33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="5" t="s">
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
         <v>103</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>103</v>
       </c>
-      <c r="E34" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="5" t="s">
+      <c r="E36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
         <v>104</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>104</v>
       </c>
-      <c r="E35" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="5" t="s">
+      <c r="E37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
         <v>105</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>105</v>
       </c>
-      <c r="E36" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="E38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
         <v>106</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>106</v>
       </c>
-      <c r="E37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="E39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
         <v>107</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>107</v>
       </c>
-      <c r="E38" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="E40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
         <v>108</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>108</v>
       </c>
-      <c r="E39" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="5" t="s">
+      <c r="E41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
         <v>109</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>109</v>
       </c>
-      <c r="E40" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="E42" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
         <v>110</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>110</v>
       </c>
-      <c r="E41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="E43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
         <v>111</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>111</v>
       </c>
-      <c r="E42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="E44" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
         <v>112</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>112</v>
       </c>
-      <c r="E43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="E45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
         <v>113</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>113</v>
       </c>
-      <c r="E44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="E46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
         <v>114</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>114</v>
       </c>
-      <c r="E45" t="s">
-        <v>127</v>
-      </c>
-      <c r="F45" s="5" t="s">
+      <c r="E47" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
         <v>115</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>115</v>
       </c>
-      <c r="E46" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" s="5" t="s">
+      <c r="E48" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
         <v>116</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>116</v>
       </c>
-      <c r="E47" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="5" t="s">
+      <c r="E49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
         <v>117</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>117</v>
       </c>
-      <c r="E48" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48" s="5" t="s">
+      <c r="E50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
         <v>118</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>118</v>
       </c>
-      <c r="E49" t="s">
-        <v>127</v>
-      </c>
-      <c r="F49" s="5" t="s">
+      <c r="E51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
         <v>119</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>119</v>
       </c>
-      <c r="E50" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="E52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
         <v>120</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>120</v>
       </c>
-      <c r="E51" t="s">
-        <v>127</v>
-      </c>
-      <c r="F51" s="5" t="s">
+      <c r="E53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" t="s">
-        <v>127</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2085,18 +2079,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="39" customWidth="1"/>
-    <col min="10" max="13" width="11.6640625" customWidth="1"/>
+    <col min="10" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2131,7 +2125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -2166,7 +2160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/38_Inst_Analysis_Unit_ALEX.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/38_Inst_Analysis_Unit_ALEX.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="465" windowWidth="29385" windowHeight="13380"/>
+    <workbookView xWindow="2625" yWindow="465" windowWidth="29385" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
     <sheet name="r AnalysisUnit_Variable" sheetId="2" r:id="rId2"/>
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -130,9 +130,6 @@
     <t>CustomerInfoFormula</t>
   </si>
   <si>
-    <t>EXPOSURE</t>
-  </si>
-  <si>
     <t>ALEX_IND_1</t>
   </si>
   <si>
@@ -452,12 +449,15 @@
   </si>
   <si>
     <t>LIB_EWS_ALEX.ExternalInfo(Param1);</t>
+  </si>
+  <si>
+    <t>ALEX_EXPOSURE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,7 +573,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -621,7 +627,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -664,7 +676,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -712,7 +730,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -760,7 +784,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1061,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1125,25 +1155,25 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
         <v>129</v>
       </c>
-      <c r="D3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>130</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>131</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>132</v>
-      </c>
-      <c r="I3" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1157,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,16 +1234,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1221,16 +1251,16 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1238,16 +1268,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1255,16 +1285,16 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,16 +1302,16 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,16 +1319,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,16 +1336,16 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1323,16 +1353,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1340,16 +1370,16 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,16 +1387,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1374,16 +1404,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1391,16 +1421,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1408,16 +1438,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1425,16 +1455,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1442,16 +1472,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,16 +1489,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1476,16 +1506,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,16 +1523,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1510,16 +1540,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1527,16 +1557,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,16 +1574,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,16 +1591,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1578,16 +1608,16 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1595,16 +1625,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,16 +1642,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1629,16 +1659,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,16 +1676,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,16 +1693,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1680,16 +1710,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1697,16 +1727,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1714,16 +1744,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1731,16 +1761,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1748,16 +1778,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,16 +1795,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1782,16 +1812,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1799,16 +1829,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1816,16 +1846,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1833,16 +1863,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1850,16 +1880,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1867,16 +1897,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1884,16 +1914,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1901,16 +1931,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,16 +1948,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1935,16 +1965,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1952,16 +1982,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1969,16 +1999,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1986,16 +2016,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,16 +2033,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2020,16 +2050,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2037,16 +2067,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2054,16 +2084,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
